--- a/Clase_10/Pronostico_ARIMA.xlsx
+++ b/Clase_10/Pronostico_ARIMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Library/Mobile Documents/com~apple~CloudDocs/Documents/Personal/Cursos_UNAM/SERIES_2024-I/Series-Tiempo-2023/Clase_10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Documents/Personal/Cursos_UNAM/SERIES_2025-I/Series-Tiempo-2024/Clase_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B9741D-7DB2-7E43-B190-8FC0E686D7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DB63A7-B8CB-9D4A-8727-F07023F913D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17500" xr2:uid="{010589B2-5E98-1D40-AEE0-AA1A110D1180}"/>
   </bookViews>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -97,9 +102,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -137,7 +142,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -243,7 +248,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -385,7 +390,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -393,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E033B569-E481-7947-93CD-4A9A959244F1}">
-  <dimension ref="A1:B306"/>
+  <dimension ref="A1:B319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A283" sqref="A283:A306"/>
+    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A290" sqref="A290:A319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -974,6 +979,7 @@
         <v>38657</v>
       </c>
       <c r="B72">
+        <f>ROUND(AVERAGE(B71,B73),0)</f>
         <v>1694174</v>
       </c>
     </row>
@@ -2350,7 +2356,7 @@
         <v>43891</v>
       </c>
       <c r="B244">
-        <v>3008278</v>
+        <v>3008295</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -2358,7 +2364,7 @@
         <v>43922</v>
       </c>
       <c r="B245">
-        <v>409163</v>
+        <v>406742</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -2374,7 +2380,7 @@
         <v>43983</v>
       </c>
       <c r="B247">
-        <v>890377</v>
+        <v>890203</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -2382,7 +2388,7 @@
         <v>44013</v>
       </c>
       <c r="B248">
-        <v>1677953</v>
+        <v>1678137</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -2390,7 +2396,7 @@
         <v>44044</v>
       </c>
       <c r="B249">
-        <v>2126479</v>
+        <v>2126572</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -2398,7 +2404,7 @@
         <v>44075</v>
       </c>
       <c r="B250">
-        <v>2328190</v>
+        <v>2328193</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -2406,7 +2412,7 @@
         <v>44105</v>
       </c>
       <c r="B251">
-        <v>2724258</v>
+        <v>2724198</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -2414,7 +2420,7 @@
         <v>44136</v>
       </c>
       <c r="B252">
-        <v>2934921</v>
+        <v>2935138</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -2430,7 +2436,7 @@
         <v>44197</v>
       </c>
       <c r="B254">
-        <v>2747947</v>
+        <v>2685767</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -2438,7 +2444,7 @@
         <v>44228</v>
       </c>
       <c r="B255">
-        <v>2250155</v>
+        <v>2214034</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -2446,7 +2452,7 @@
         <v>44256</v>
       </c>
       <c r="B256">
-        <v>3215499</v>
+        <v>3162379</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -2454,7 +2460,7 @@
         <v>44287</v>
       </c>
       <c r="B257">
-        <v>3523462</v>
+        <v>3452944</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -2462,7 +2468,7 @@
         <v>44317</v>
       </c>
       <c r="B258">
-        <v>3868612</v>
+        <v>3784266</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -2470,7 +2476,7 @@
         <v>44348</v>
       </c>
       <c r="B259">
-        <v>3885189</v>
+        <v>3791459</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -2478,7 +2484,7 @@
         <v>44378</v>
       </c>
       <c r="B260">
-        <v>4446637</v>
+        <v>4352913</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -2486,7 +2492,7 @@
         <v>44409</v>
       </c>
       <c r="B261">
-        <v>4061957</v>
+        <v>3961404</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -2494,7 +2500,7 @@
         <v>44440</v>
       </c>
       <c r="B262">
-        <v>3653971</v>
+        <v>3577845</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -2502,7 +2508,7 @@
         <v>44470</v>
       </c>
       <c r="B263">
-        <v>4204904</v>
+        <v>4118307</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -2510,7 +2516,7 @@
         <v>44501</v>
       </c>
       <c r="B264">
-        <v>4395259</v>
+        <v>4313721</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -2518,7 +2524,7 @@
         <v>44531</v>
       </c>
       <c r="B265">
-        <v>4768202</v>
+        <v>4681213</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -2526,7 +2532,7 @@
         <v>44562</v>
       </c>
       <c r="B266">
-        <v>3854676</v>
+        <v>3767905</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -2534,7 +2540,7 @@
         <v>44593</v>
       </c>
       <c r="B267">
-        <v>3612447</v>
+        <v>3535885</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -2542,7 +2548,7 @@
         <v>44621</v>
       </c>
       <c r="B268">
-        <v>4549465</v>
+        <v>4438186</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -2550,7 +2556,7 @@
         <v>44652</v>
       </c>
       <c r="B269">
-        <v>4778420</v>
+        <v>4701734</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -2558,7 +2564,7 @@
         <v>44682</v>
       </c>
       <c r="B270">
-        <v>4908699</v>
+        <v>4424819</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -2566,7 +2572,7 @@
         <v>44713</v>
       </c>
       <c r="B271">
-        <v>4701641</v>
+        <v>4224210</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -2574,7 +2580,7 @@
         <v>44743</v>
       </c>
       <c r="B272">
-        <v>5372852</v>
+        <v>5262601</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -2582,7 +2588,7 @@
         <v>44774</v>
       </c>
       <c r="B273">
-        <v>5261481</v>
+        <v>5148560</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -2590,7 +2596,7 @@
         <v>44805</v>
       </c>
       <c r="B274">
-        <v>4704494</v>
+        <v>4618052</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -2598,7 +2604,7 @@
         <v>44835</v>
       </c>
       <c r="B275">
-        <v>5162631</v>
+        <v>5062571</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -2606,7 +2612,7 @@
         <v>44866</v>
       </c>
       <c r="B276">
-        <v>5183061</v>
+        <v>5085319</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -2614,7 +2620,7 @@
         <v>44896</v>
       </c>
       <c r="B277">
-        <v>5456045</v>
+        <v>5359335</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -2622,7 +2628,7 @@
         <v>44927</v>
       </c>
       <c r="B278">
-        <v>5058367</v>
+        <v>4947266</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -2630,7 +2636,7 @@
         <v>44958</v>
       </c>
       <c r="B279">
-        <v>4515723</v>
+        <v>4417727</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -2638,7 +2644,7 @@
         <v>44986</v>
       </c>
       <c r="B280">
-        <v>5287795</v>
+        <v>5180113</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -2646,7 +2652,7 @@
         <v>45017</v>
       </c>
       <c r="B281">
-        <v>5428414</v>
+        <v>5324221</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -2654,115 +2660,154 @@
         <v>45047</v>
       </c>
       <c r="B282">
-        <v>5351191</v>
+        <v>5245493</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>45078</v>
       </c>
+      <c r="B283">
+        <v>5206599</v>
+      </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>45108</v>
       </c>
+      <c r="B284">
+        <v>5931271</v>
+      </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>45139</v>
       </c>
+      <c r="B285">
+        <v>5957266</v>
+      </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>45170</v>
       </c>
+      <c r="B286">
+        <v>5046561</v>
+      </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>45200</v>
       </c>
+      <c r="B287">
+        <v>5397795</v>
+      </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>45231</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B288">
+        <v>5250222</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>45261</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B289">
+        <v>5379789</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>45292</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B290">
+        <v>4640553</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>45323</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B291">
+        <v>4229370</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>45352</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B292">
+        <v>4691197</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>45383</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B293">
+        <v>4819596</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>45413</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B294">
+        <v>5066232</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>45444</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B295">
+        <v>4955045</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>45474</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>45505</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>45536</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>45566</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>45597</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>45627</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>45658</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>45689</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>45717</v>
       </c>
@@ -2775,6 +2820,71 @@
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>45778</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" s="1">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" s="1">
+        <v>46113</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" s="1">
+        <v>46143</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" s="1">
+        <v>46174</v>
       </c>
     </row>
   </sheetData>
